--- a/biology/Zoologie/Azuré_de_la_phaque/Azuré_de_la_phaque.xlsx
+++ b/biology/Zoologie/Azuré_de_la_phaque/Azuré_de_la_phaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriades orbitulus · Azuré alpin, Argus azur
 L’Azuré de la phaque (Agriades orbitulus) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En français : l’Azuré de la phaque, l’Azuré alpin, l’Argus azur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En français : l’Azuré de la phaque, l’Azuré alpin, l’Argus azur.
 En anglais : alpine argus.
 En allemand : Heller Alpenbläuling.
 En néerlandais : Alpenblauwtje.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,14 +560,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Agriades orbitulus est un petit papillon qui présente un net dimorphisme sexuel : le dessus du mâle est bleu foncé bordé d'une ligne blanche, celui de la femelle est marron bordé de la même ligne blanche.
 Le revers est beige suffusé de bleu aux postérieures, les ailes antérieures sont ornées d'une ligne de points noirs et les postérieures d'une ligne submarginale de taches blanches.
 			Dessus du mâle et de la femelle.
 			Revers.
-Espèce ressemblante
-Les femelles d’Agriades glandon glandon et d’Agriades orbitulus orbitulus peuvent être confondues dans les Alpes, et celles d’Agriades glandon aquillo et d’Agriades orbitulus orbitulus en Fennoscandinavie arctique.
 </t>
         </is>
       </c>
@@ -564,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,15 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de juin à juillet. Il hiverne à l'état de chenille.
-Plantes-hôtes
-Ses plantes-hôtes sont Astragalus alpinus et Astragalus frigidus.
+          <t>Espèce ressemblante</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles d’Agriades glandon glandon et d’Agriades orbitulus orbitulus peuvent être confondues dans les Alpes, et celles d’Agriades glandon aquillo et d’Agriades orbitulus orbitulus en Fennoscandinavie arctique.
 </t>
         </is>
       </c>
@@ -598,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,15 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente en l'Europe dans les Alpes, en Norvège et en Suède, dans l'Oural, et dans le centre et l'Est de l'Asie.
-En France, elle est présente dans sept départements des Alpes[2].
-Biotopes
-L’Azuré de la phaque est inféodé aux alpages humides et aux prairies alpines[3].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de juin à juillet. Il hiverne à l'état de chenille.
 </t>
         </is>
       </c>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
+          <t>Azuré_de_la_phaque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,22 +667,166 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont Astragalus alpinus et Astragalus frigidus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en l'Europe dans les Alpes, en Norvège et en Suède, dans l'Oural, et dans le centre et l'Est de l'Asie.
+En France, elle est présente dans sept départements des Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré de la phaque est inféodé aux alpages humides et aux prairies alpines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L’espèce Agriades orbitulus a été décrite par l'entomologiste italien Leonardo De Prunner en 1798, sous le nom initial de Papilio orbitulus[4],[5].
-Synonymes[5] : 
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L’espèce Agriades orbitulus a été décrite par l'entomologiste italien Leonardo De Prunner en 1798, sous le nom initial de Papilio orbitulus,.
+Synonymes : 
 Papilio orbitulus Prunner, 1798 — protonyme
 Papilio meleager Hübner, [1800-1803]
 Papilio atys Hübner, [1803-1804]
 Papilio pheretes Hoffmannsegg, 1804
 Papilio pheretes Hübner, [1805-1806]
 Albulina orbitulus (Prunner, 1798)
-Plebejus orbitulus (Prunner, 1798)
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[5] :
+Plebejus orbitulus (Prunner, 1798)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Agriades orbitulus orbitulus (Prunner, 1798) — Alpes, Norvège, Oural.
 Agriades orbitulus luxurians (Forster, 1940) — Yunnan.
 Agriades orbitulus lobbichleri (Forster, 1961) — Népal.
@@ -681,31 +845,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_la_phaque</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_la_phaque</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier[réf. souhaitée].
 </t>
